--- a/Reduced/node_lists.xlsx
+++ b/Reduced/node_lists.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -399,6 +399,36 @@
   </si>
   <si>
     <t>OLINDA_500</t>
+  </si>
+  <si>
+    <t>SUMMIT_20</t>
+  </si>
+  <si>
+    <t>BELLOTA_230</t>
+  </si>
+  <si>
+    <t>BRIGHTON_230</t>
+  </si>
+  <si>
+    <t>COLGATE_230</t>
+  </si>
+  <si>
+    <t>GOLDHILL_230</t>
+  </si>
+  <si>
+    <t>PALERMO_230</t>
+  </si>
+  <si>
+    <t>RIO_OSO_115</t>
+  </si>
+  <si>
+    <t>RIO_OSO_230</t>
+  </si>
+  <si>
+    <t>SUMMIT_115</t>
+  </si>
+  <si>
+    <t>SUMITSPP_115</t>
   </si>
 </sst>
 </file>
@@ -717,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -865,6 +895,14 @@
         <v>3931</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18">
+        <v>3931</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:B44">
     <sortCondition ref="A2:A44"/>
@@ -875,10 +913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1469,6 +1507,78 @@
       </c>
       <c r="B73">
         <v>8005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82">
+        <v>6402</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>

--- a/Reduced/node_lists.xlsx
+++ b/Reduced/node_lists.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="173">
   <si>
     <t>Name</t>
   </si>
@@ -429,6 +429,117 @@
   </si>
   <si>
     <t>SUMITSPP_115</t>
+  </si>
+  <si>
+    <t>WCASCADE_20</t>
+  </si>
+  <si>
+    <t>NORTH_G3_20</t>
+  </si>
+  <si>
+    <t>MALIN_20</t>
+  </si>
+  <si>
+    <t>JOHN_DAY_20</t>
+  </si>
+  <si>
+    <t>HANFORD_20</t>
+  </si>
+  <si>
+    <t>DALLES21_20</t>
+  </si>
+  <si>
+    <t>COULEE_20</t>
+  </si>
+  <si>
+    <t>CANAD_G1_20</t>
+  </si>
+  <si>
+    <t>WCASCADE_500</t>
+  </si>
+  <si>
+    <t>NORTH_500</t>
+  </si>
+  <si>
+    <t>MALIN_345</t>
+  </si>
+  <si>
+    <t>JOHN_DAY_500</t>
+  </si>
+  <si>
+    <t>HANFORD_500</t>
+  </si>
+  <si>
+    <t>GRIZZLY_500</t>
+  </si>
+  <si>
+    <t>GARRISON_500</t>
+  </si>
+  <si>
+    <t>GARRISON_230</t>
+  </si>
+  <si>
+    <t>COULEE_500</t>
+  </si>
+  <si>
+    <t>CELILOCA_500</t>
+  </si>
+  <si>
+    <t>CANADA_500</t>
+  </si>
+  <si>
+    <t>BIG_EDDY_230</t>
+  </si>
+  <si>
+    <t>BELL_500</t>
+  </si>
+  <si>
+    <t>BELL_230</t>
+  </si>
+  <si>
+    <t>MALIN1_500</t>
+  </si>
+  <si>
+    <t>MALIN_500</t>
+  </si>
+  <si>
+    <t>GRIZZLY7_500</t>
+  </si>
+  <si>
+    <t>GRIZZLY6_500</t>
+  </si>
+  <si>
+    <t>GRIZZLY5_500</t>
+  </si>
+  <si>
+    <t>GRIZZLY4_500</t>
+  </si>
+  <si>
+    <t>GRIZZLY3_500</t>
+  </si>
+  <si>
+    <t>GRIZZLY2_500</t>
+  </si>
+  <si>
+    <t>GRIZZLY1_500</t>
+  </si>
+  <si>
+    <t>CELILO_230</t>
+  </si>
+  <si>
+    <t>BIG_EDDY_500</t>
+  </si>
+  <si>
+    <t>CA230TO_230</t>
+  </si>
+  <si>
+    <t>CA230_230</t>
+  </si>
+  <si>
+    <t>SUMMER_L_500</t>
+  </si>
+  <si>
+    <t>WILLAMET_500</t>
   </si>
 </sst>
 </file>
@@ -464,9 +575,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -903,6 +1013,70 @@
         <v>3931</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19">
+        <v>5031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26">
+        <v>4232</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:B44">
     <sortCondition ref="A2:A44"/>
@@ -913,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:B82"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1581,6 +1755,142 @@
         <v>6402</v>
       </c>
     </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>152</v>
+      </c>
+      <c r="B88">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89">
+        <v>6204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90">
+        <v>6202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>147</v>
+      </c>
+      <c r="B93">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99">
+        <v>4203</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:B31">
     <sortCondition ref="A2:A31"/>
@@ -1591,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1899,9 +2209,101 @@
         <v>8001</v>
       </c>
     </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42">
+        <v>4093</v>
+      </c>
+    </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49">
+        <v>5004</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:B44">
